--- a/src/main/resources/template/datainfo.xlsx
+++ b/src/main/resources/template/datainfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7320"/>
+    <workbookView windowWidth="19100" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
@@ -37,6 +38,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
@@ -51,6 +53,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
@@ -65,6 +68,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
@@ -79,10 +83,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -93,121 +97,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,16 +151,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,6 +174,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -265,13 +272,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,19 +380,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,31 +416,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,79 +446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,32 +456,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -459,17 +466,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,6 +486,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,11 +516,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,42 +555,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,159 +568,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1080,93 +1075,96 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="4" width="10.3636363636364" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="30.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="22.8181818181818" customWidth="1"/>
+    <col min="4" max="4" width="19.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
